--- a/4月/4月份客户发货需求(4.17).xlsx
+++ b/4月/4月份客户发货需求(4.17).xlsx
@@ -2619,7 +2619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H179" activeCellId="1" sqref="I153 H179"/>
+      <selection pane="bottomLeft" activeCell="I163" sqref="I163:N176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/4月/4月份客户发货需求(4.17).xlsx
+++ b/4月/4月份客户发货需求(4.17).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$140</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="autoNoTable"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -27,6 +27,7 @@
     <author>Administrator</author>
     <author>lenovo</author>
     <author>xbany</author>
+    <author>微软用户</author>
   </authors>
   <commentList>
     <comment ref="F31" authorId="0" shapeId="0">
@@ -507,12 +508,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="F154" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>U型枕粉色，蓝色。靠枕一个颜色一个</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="473">
   <si>
     <t>下单日期</t>
   </si>
@@ -2087,6 +2103,17 @@
   </si>
   <si>
     <t>UK10 -1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷琳</t>
+  </si>
+  <si>
+    <t>雷小姐</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西省吉安市青原区梅苑小区D8栋</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2617,9 +2644,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I163" sqref="I163:N176"/>
+      <selection pane="bottomLeft" activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -9092,8 +9119,8 @@
         <v>469</v>
       </c>
       <c r="Z153" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SUM(J154:R154)</f>
+        <v>44</v>
       </c>
       <c r="AA153" s="3" t="str">
         <f t="shared" si="9"/>
@@ -9101,26 +9128,77 @@
       </c>
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A154" s="9">
+        <v>43572</v>
+      </c>
+      <c r="B154" s="3">
+        <v>5954052603</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G154" s="27">
+        <v>13697960257</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="J154" s="4">
+        <v>10</v>
+      </c>
+      <c r="K154" s="4">
+        <v>10</v>
+      </c>
+      <c r="L154" s="4">
+        <v>6</v>
+      </c>
+      <c r="M154" s="4">
+        <v>6</v>
+      </c>
+      <c r="N154" s="4">
+        <v>3</v>
+      </c>
+      <c r="O154" s="4">
+        <v>2</v>
+      </c>
+      <c r="P154" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q154" s="4">
+        <v>3</v>
+      </c>
+      <c r="R154" s="4">
+        <v>2</v>
+      </c>
       <c r="AA154" s="3" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>U1-10;U2-10;U3-6;U4-6;U6-3;U7-2;U8-2;U9-3;U10-2;</v>
       </c>
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA155" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AA154:AA157" si="10">IF(J156&gt;0,"U1-"&amp;J156&amp;";","")&amp;IF(K156&gt;0,"U2-"&amp;K156&amp;";","")&amp;IF(L156&gt;0,"U3-"&amp;L156&amp;";","")&amp;IF(M156&gt;0,"U4-"&amp;M156&amp;";","")&amp;IF(N156&gt;0,"U6-"&amp;N156&amp;";","")&amp;IF(O156&gt;0,"U7-"&amp;O156&amp;";","")&amp;IF(P156&gt;0,"U8-"&amp;P156&amp;";","")&amp;IF(Q156&gt;0,"U9-"&amp;Q156&amp;";","")&amp;IF(R156&gt;0,"U10-"&amp;R156&amp;";","")&amp;U155</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA156" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA157" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9414,352 +9492,352 @@
     </row>
     <row r="206" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA206" s="3" t="str">
-        <f t="shared" ref="AA206:AA257" si="10">IF(J206&gt;0,"U1-"&amp;J206&amp;";","")&amp;IF(K206&gt;0,"U2-"&amp;K206&amp;";","")&amp;IF(L206&gt;0,"U3-"&amp;L206&amp;";","")&amp;IF(M206&gt;0,"U4-"&amp;M206&amp;";","")&amp;IF(N206&gt;0,"U6-"&amp;N206&amp;";","")&amp;IF(O206&gt;0,"U7-"&amp;O206&amp;";","")&amp;IF(P206&gt;0,"U8-"&amp;P206&amp;";","")&amp;IF(Q206&gt;0,"U9-"&amp;Q206&amp;";","")&amp;IF(R206&gt;0,"U10-"&amp;R206&amp;";","")&amp;U206</f>
+        <f t="shared" ref="AA206:AA257" si="11">IF(J206&gt;0,"U1-"&amp;J206&amp;";","")&amp;IF(K206&gt;0,"U2-"&amp;K206&amp;";","")&amp;IF(L206&gt;0,"U3-"&amp;L206&amp;";","")&amp;IF(M206&gt;0,"U4-"&amp;M206&amp;";","")&amp;IF(N206&gt;0,"U6-"&amp;N206&amp;";","")&amp;IF(O206&gt;0,"U7-"&amp;O206&amp;";","")&amp;IF(P206&gt;0,"U8-"&amp;P206&amp;";","")&amp;IF(Q206&gt;0,"U9-"&amp;Q206&amp;";","")&amp;IF(R206&gt;0,"U10-"&amp;R206&amp;";","")&amp;U206</f>
         <v/>
       </c>
     </row>
     <row r="207" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA207" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA208" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA209" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA210" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA211" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA212" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA213" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA214" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA215" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA216" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA217" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA218" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA219" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA220" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA221" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA222" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA223" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA224" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA225" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA226" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA227" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA228" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA229" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA230" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA231" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA232" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA233" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA234" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA235" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA236" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA237" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA238" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA239" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA240" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA241" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA242" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA243" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA244" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA245" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA246" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA247" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA248" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA249" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA250" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA251" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA252" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA253" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA254" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA255" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA256" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA257" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="1048576" spans="10:18" x14ac:dyDescent="0.15">
       <c r="J1048576" s="4">
         <f>SUM(J2:J1048575)</f>
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K1048576" s="4">
-        <f t="shared" ref="K1048576:R1048576" si="11">SUM(K2:K1048575)</f>
-        <v>197</v>
+        <f t="shared" ref="K1048576:R1048576" si="12">SUM(K2:K1048575)</f>
+        <v>207</v>
       </c>
       <c r="L1048576" s="4">
-        <f t="shared" si="11"/>
-        <v>47</v>
+        <f t="shared" si="12"/>
+        <v>53</v>
       </c>
       <c r="M1048576" s="4">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="N1048576" s="4">
-        <f t="shared" si="11"/>
-        <v>26</v>
+        <f t="shared" si="12"/>
+        <v>29</v>
       </c>
       <c r="O1048576" s="4">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>12</v>
       </c>
       <c r="P1048576" s="4">
-        <f t="shared" si="11"/>
-        <v>29</v>
+        <f t="shared" si="12"/>
+        <v>31</v>
       </c>
       <c r="Q1048576" s="4">
-        <f t="shared" si="11"/>
-        <v>79</v>
+        <f t="shared" si="12"/>
+        <v>82</v>
       </c>
       <c r="R1048576" s="4">
-        <f t="shared" si="11"/>
-        <v>54</v>
+        <f t="shared" si="12"/>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/4月/4月份客户发货需求(4.17).xlsx
+++ b/4月/4月份客户发货需求(4.17).xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$155</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -523,12 +523,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="F155" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1个蓝色，1个棕色</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="475">
   <si>
     <t>下单日期</t>
   </si>
@@ -2114,6 +2129,13 @@
   </si>
   <si>
     <t>江西省吉安市青原区梅苑小区D8栋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈新代</t>
+  </si>
+  <si>
+    <t>浙江省金华市义乌市宗泽路567号招商银行副楼10楼 港兴国际货运</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2641,12 +2663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H159" sqref="H159"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2741,7 +2762,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>43556</v>
       </c>
@@ -2783,7 +2804,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>43556</v>
       </c>
@@ -2828,7 +2849,7 @@
         <v>U1-14;U3-3;</v>
       </c>
     </row>
-    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>43556</v>
       </c>
@@ -2870,7 +2891,7 @@
         <v>U8-2;</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>43556</v>
       </c>
@@ -2912,7 +2933,7 @@
         <v>UQ7.5-4;UK7.5-3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>43556</v>
       </c>
@@ -2953,7 +2974,7 @@
         <v>US7.5-4</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>43556</v>
       </c>
@@ -2995,7 +3016,7 @@
         <v>UQ7.5-1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>43556</v>
       </c>
@@ -3037,7 +3058,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>43556</v>
       </c>
@@ -3082,7 +3103,7 @@
         <v>U1-3;U2-3;</v>
       </c>
     </row>
-    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>43556</v>
       </c>
@@ -3129,7 +3150,7 @@
         <v>U1-1;U2-1;7700116778119</v>
       </c>
     </row>
-    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>43556</v>
       </c>
@@ -3176,7 +3197,7 @@
         <v>U1-1;U2-1;7700116778118</v>
       </c>
     </row>
-    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>43556</v>
       </c>
@@ -3221,7 +3242,7 @@
         <v>U1-2;U2-2;7700116778114</v>
       </c>
     </row>
-    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>43556</v>
       </c>
@@ -3266,7 +3287,7 @@
         <v>U1-1;U2-1;7700116778112</v>
       </c>
     </row>
-    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>43556</v>
       </c>
@@ -3308,7 +3329,7 @@
         <v>U4-1;7700116778111</v>
       </c>
     </row>
-    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>43556</v>
       </c>
@@ -3350,7 +3371,7 @@
         <v>U2-1;7700116778109</v>
       </c>
     </row>
-    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>43556</v>
       </c>
@@ -3392,7 +3413,7 @@
         <v>U3-1;7700116778108</v>
       </c>
     </row>
-    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>43557</v>
       </c>
@@ -3433,7 +3454,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>43557</v>
       </c>
@@ -3477,7 +3498,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>43557</v>
       </c>
@@ -3518,7 +3539,7 @@
         <v>U4-1;</v>
       </c>
     </row>
-    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>43557</v>
       </c>
@@ -3562,7 +3583,7 @@
         <v>U2-2;U8-1;</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>43557</v>
       </c>
@@ -3617,7 +3638,7 @@
         <v>U1-1;U2-1;U3-1;U4-1;U9-1;</v>
       </c>
     </row>
-    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>43557</v>
       </c>
@@ -3658,7 +3679,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>43557</v>
       </c>
@@ -3699,7 +3720,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>43557</v>
       </c>
@@ -3740,7 +3761,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>43557</v>
       </c>
@@ -3781,7 +3802,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>43557</v>
       </c>
@@ -3822,7 +3843,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>43557</v>
       </c>
@@ -3863,7 +3884,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>43557</v>
       </c>
@@ -3906,7 +3927,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>43557</v>
       </c>
@@ -3950,7 +3971,7 @@
         <v>U1-4;U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>43557</v>
       </c>
@@ -3991,7 +4012,7 @@
         <v>U9-3;U10-1;</v>
       </c>
     </row>
-    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>43558</v>
       </c>
@@ -4041,7 +4062,7 @@
         <v>U1-9;U2-11;U8-6;U10-6;</v>
       </c>
     </row>
-    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>43558</v>
       </c>
@@ -4087,7 +4108,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>43558</v>
       </c>
@@ -4128,7 +4149,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>43558</v>
       </c>
@@ -4172,7 +4193,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>43558</v>
       </c>
@@ -4213,7 +4234,7 @@
         <v>U6-1;</v>
       </c>
     </row>
-    <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>43558</v>
       </c>
@@ -4254,7 +4275,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>43558</v>
       </c>
@@ -4301,7 +4322,7 @@
         <v>U1-1;U2-1;U9-1;</v>
       </c>
     </row>
-    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>43558</v>
       </c>
@@ -4342,7 +4363,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>43558</v>
       </c>
@@ -4389,7 +4410,7 @@
         <v>U7-1;U9-3;U10-2;</v>
       </c>
     </row>
-    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>43558</v>
       </c>
@@ -4433,7 +4454,7 @@
         <v>U8-1;U10-5;</v>
       </c>
     </row>
-    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>43558</v>
       </c>
@@ -4474,7 +4495,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>43558</v>
       </c>
@@ -4518,7 +4539,7 @@
         <v>U1-3;U2-2;</v>
       </c>
     </row>
-    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>43558</v>
       </c>
@@ -4562,7 +4583,7 @@
         <v>U1-4;U10-5;</v>
       </c>
     </row>
-    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>43558</v>
       </c>
@@ -4606,7 +4627,7 @@
         <v>U4-1;U7-1;</v>
       </c>
     </row>
-    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A45" s="9">
         <v>43558</v>
       </c>
@@ -4650,7 +4671,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A46" s="9">
         <v>43558</v>
       </c>
@@ -4694,7 +4715,7 @@
         <v>U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A47" s="9">
         <v>43559</v>
       </c>
@@ -4735,7 +4756,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A48" s="9">
         <v>43559</v>
       </c>
@@ -4776,7 +4797,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A49" s="9">
         <v>43559</v>
       </c>
@@ -4817,7 +4838,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A50" s="9">
         <v>43559</v>
       </c>
@@ -4858,7 +4879,7 @@
         <v>U10-5;</v>
       </c>
     </row>
-    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
         <v>43559</v>
       </c>
@@ -4899,7 +4920,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
         <v>43559</v>
       </c>
@@ -4940,7 +4961,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
         <v>43559</v>
       </c>
@@ -4981,7 +5002,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
         <v>43559</v>
       </c>
@@ -5037,7 +5058,7 @@
         <v>U1-10;U3-4;U4-4;U8-4;U9-10;U10-4;</v>
       </c>
     </row>
-    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
         <v>43559</v>
       </c>
@@ -5078,7 +5099,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="56" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
         <v>43559</v>
       </c>
@@ -5120,7 +5141,7 @@
         <v>UQ5-1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A57" s="9">
         <v>43559</v>
       </c>
@@ -5164,7 +5185,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
         <v>43559</v>
       </c>
@@ -5205,7 +5226,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A59" s="9">
         <v>43559</v>
       </c>
@@ -5246,7 +5267,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A60" s="9">
         <v>43559</v>
       </c>
@@ -5288,7 +5309,7 @@
         <v>UQ10-1;UK7.5-1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A61" s="9">
         <v>43559</v>
       </c>
@@ -5341,7 +5362,7 @@
         <v>U1-1;U2-4;U3-1;U6-2;U9-2;</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="9">
         <v>43563</v>
       </c>
@@ -5382,7 +5403,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A63" s="9">
         <v>43563</v>
       </c>
@@ -5423,7 +5444,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A64" s="9">
         <v>43563</v>
       </c>
@@ -5464,7 +5485,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A65" s="9">
         <v>43563</v>
       </c>
@@ -5508,7 +5529,7 @@
         <v>U6-2;U9-1;</v>
       </c>
     </row>
-    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A66" s="9">
         <v>43563</v>
       </c>
@@ -5553,7 +5574,7 @@
         <v>U1-1;U2-8;U9-1;</v>
       </c>
     </row>
-    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A67" s="9">
         <v>43563</v>
       </c>
@@ -5594,7 +5615,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A68" s="9">
         <v>43563</v>
       </c>
@@ -5635,7 +5656,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A69" s="9">
         <v>43563</v>
       </c>
@@ -5679,7 +5700,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A70" s="9">
         <v>43563</v>
       </c>
@@ -5723,7 +5744,7 @@
         <v>U6-1;U9-2;</v>
       </c>
     </row>
-    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A71" s="9">
         <v>43563</v>
       </c>
@@ -5770,7 +5791,7 @@
         <v>U1-5;U2-3;U4-2;</v>
       </c>
     </row>
-    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A72" s="9">
         <v>43563</v>
       </c>
@@ -5817,7 +5838,7 @@
         <v>U4-2;U6-1;U10-3;</v>
       </c>
     </row>
-    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A73" s="9">
         <v>43563</v>
       </c>
@@ -5864,7 +5885,7 @@
         <v>U1-5;U6-5;U7-3;</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:27" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="9">
         <v>43563</v>
       </c>
@@ -5908,7 +5929,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A75" s="9">
         <v>43563</v>
       </c>
@@ -5955,7 +5976,7 @@
         <v>U1-4;U2-5;U6-1;</v>
       </c>
     </row>
-    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A76" s="9">
         <v>43563</v>
       </c>
@@ -5999,7 +6020,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="19">
         <v>43563</v>
       </c>
@@ -6051,7 +6072,7 @@
         <v>UK5-1</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:27" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A78" s="19">
         <v>43563</v>
       </c>
@@ -6104,7 +6125,7 @@
         <v>U2-20;U3-5;U4-5;U6-5;U9-5;</v>
       </c>
     </row>
-    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A79" s="19">
         <v>43563</v>
       </c>
@@ -6154,7 +6175,7 @@
         <v>U1-1;U2-3;U9-1;U10-1;</v>
       </c>
     </row>
-    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A80" s="19">
         <v>43563</v>
       </c>
@@ -6198,7 +6219,7 @@
         <v>U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A81" s="19">
         <v>43563</v>
       </c>
@@ -6239,7 +6260,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A82" s="19">
         <v>43563</v>
       </c>
@@ -6283,7 +6304,7 @@
         <v>UK10-1</v>
       </c>
     </row>
-    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A83" s="19">
         <v>43563</v>
       </c>
@@ -6324,7 +6345,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A84" s="19">
         <v>43563</v>
       </c>
@@ -6365,7 +6386,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A85" s="19">
         <v>43563</v>
       </c>
@@ -6406,7 +6427,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A86" s="19">
         <v>43563</v>
       </c>
@@ -6444,7 +6465,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:27" ht="57" x14ac:dyDescent="0.15">
       <c r="A87" s="9">
         <v>43564</v>
       </c>
@@ -6494,7 +6515,7 @@
         <v>U1-14;U2-10;U3-10;U4-10;</v>
       </c>
     </row>
-    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A88" s="9">
         <v>43564</v>
       </c>
@@ -6532,7 +6553,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A89" s="9">
         <v>43564</v>
       </c>
@@ -6570,7 +6591,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A90" s="9">
         <v>43564</v>
       </c>
@@ -6608,7 +6629,7 @@
         <v>U1-2;</v>
       </c>
     </row>
-    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A91" s="9">
         <v>43564</v>
       </c>
@@ -6655,7 +6676,7 @@
         <v>U1-10;U2-5;U3-2;U9-5;</v>
       </c>
     </row>
-    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A92" s="9">
         <v>43564</v>
       </c>
@@ -6693,7 +6714,7 @@
         <v>U10-2;</v>
       </c>
     </row>
-    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A93" s="9">
         <v>43565</v>
       </c>
@@ -6731,7 +6752,7 @@
         <v>U7-1;</v>
       </c>
     </row>
-    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A94" s="9">
         <v>43565</v>
       </c>
@@ -6769,7 +6790,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A95" s="9">
         <v>43565</v>
       </c>
@@ -6807,7 +6828,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A96" s="9">
         <v>43565</v>
       </c>
@@ -6846,7 +6867,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A97" s="9">
         <v>43565</v>
       </c>
@@ -6902,7 +6923,7 @@
         <v>U1-4;U2-4;U3-3;U4-3;U6-2;U7-2;U9-2;</v>
       </c>
     </row>
-    <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A98" s="9">
         <v>43565</v>
       </c>
@@ -6940,7 +6961,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A99" s="9">
         <v>43565</v>
       </c>
@@ -6981,7 +7002,7 @@
         <v>U2-1;U9-1;</v>
       </c>
     </row>
-    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A100" s="9">
         <v>43566</v>
       </c>
@@ -7018,7 +7039,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A101" s="9">
         <v>43566</v>
       </c>
@@ -7055,7 +7076,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A102" s="9">
         <v>43566</v>
       </c>
@@ -7092,7 +7113,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A103" s="9">
         <v>43566</v>
       </c>
@@ -7129,7 +7150,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A104" s="9">
         <v>43566</v>
       </c>
@@ -7172,7 +7193,7 @@
         <v>U1-2;U3-2;U9-2;</v>
       </c>
     </row>
-    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A105" s="9">
         <v>43566</v>
       </c>
@@ -7209,7 +7230,7 @@
         <v>U10-2;</v>
       </c>
     </row>
-    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A106" s="9">
         <v>43566</v>
       </c>
@@ -7246,7 +7267,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A107" s="9">
         <v>43566</v>
       </c>
@@ -7286,7 +7307,7 @@
         <v>2.2m*2m*7.5cm -1</v>
       </c>
     </row>
-    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A108" s="9">
         <v>43566</v>
       </c>
@@ -7324,7 +7345,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A109" s="9">
         <v>43566</v>
       </c>
@@ -7362,7 +7383,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A110" s="9">
         <v>43566</v>
       </c>
@@ -7400,7 +7421,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A111" s="9">
         <v>43566</v>
       </c>
@@ -7431,7 +7452,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A112" s="9">
         <v>43566</v>
       </c>
@@ -7478,7 +7499,7 @@
         <v>U1-15;U2-15;U8-2;U10-2;</v>
       </c>
     </row>
-    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A113" s="9">
         <v>43566</v>
       </c>
@@ -7519,7 +7540,7 @@
         <v>U2-1;U3-1;</v>
       </c>
     </row>
-    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A114" s="9">
         <v>43567</v>
       </c>
@@ -7563,7 +7584,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A115" s="9">
         <v>43567</v>
       </c>
@@ -7593,7 +7614,7 @@
         <v>10</v>
       </c>
       <c r="Z115" s="3">
-        <f t="shared" ref="Z115:Z153" si="7">SUM(J115:R115)</f>
+        <f t="shared" ref="Z115:Z152" si="7">SUM(J115:R115)</f>
         <v>10</v>
       </c>
       <c r="AA115" s="3" t="str">
@@ -7601,7 +7622,7 @@
         <v>U1-10;</v>
       </c>
     </row>
-    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A116" s="9">
         <v>43567</v>
       </c>
@@ -7639,7 +7660,7 @@
         <v>UK5-1</v>
       </c>
     </row>
-    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A117" s="9">
         <v>43567</v>
       </c>
@@ -7680,7 +7701,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A118" s="9">
         <v>43567</v>
       </c>
@@ -7721,7 +7742,7 @@
         <v>U6-1;U9-1;</v>
       </c>
     </row>
-    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A119" s="9">
         <v>43567</v>
       </c>
@@ -7759,7 +7780,7 @@
         <v>1.9m*0.95m*10cm -1</v>
       </c>
     </row>
-    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A120" s="9">
         <v>43567</v>
       </c>
@@ -7803,7 +7824,7 @@
         <v>U1-2;U2-2;U9-2;</v>
       </c>
     </row>
-    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A121" s="9">
         <v>43567</v>
       </c>
@@ -7840,7 +7861,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="122" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A122" s="9">
         <v>43567</v>
       </c>
@@ -7899,7 +7920,7 @@
         <v>U1-2;U2-2;U3-1;U4-1;U7-1;U8-1;U9-1;U10-1;</v>
       </c>
     </row>
-    <row r="123" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A123" s="9">
         <v>43567</v>
       </c>
@@ -7937,7 +7958,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="124" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A124" s="9">
         <v>43567</v>
       </c>
@@ -7975,7 +7996,7 @@
         <v>us10-1</v>
       </c>
     </row>
-    <row r="125" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A125" s="9">
         <v>43567</v>
       </c>
@@ -8019,7 +8040,7 @@
         <v>U2-1;U3-1;UK7.5-1</v>
       </c>
     </row>
-    <row r="126" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A126" s="9">
         <v>43567</v>
       </c>
@@ -8057,7 +8078,7 @@
         <v>UK10-1</v>
       </c>
     </row>
-    <row r="127" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A127" s="9">
         <v>43567</v>
       </c>
@@ -8107,7 +8128,7 @@
         <v>U1-2;U2-2;U8-3;U9-3;U10-1;</v>
       </c>
     </row>
-    <row r="128" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A128" s="9">
         <v>43567</v>
       </c>
@@ -8145,7 +8166,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="129" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A129" s="9">
         <v>43567</v>
       </c>
@@ -8183,7 +8204,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="130" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A130" s="9">
         <v>43568</v>
       </c>
@@ -8221,7 +8242,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="131" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A131" s="9">
         <v>43568</v>
       </c>
@@ -8265,7 +8286,7 @@
         <v>U1-4;U8-4;U10-2;</v>
       </c>
     </row>
-    <row r="132" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A132" s="9">
         <v>43568</v>
       </c>
@@ -8311,7 +8332,7 @@
         <v>U1-5;U6-2;U7-1;U9-2;</v>
       </c>
     </row>
-    <row r="133" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A133" s="9">
         <v>43568</v>
       </c>
@@ -8351,7 +8372,7 @@
         <v>U1-3;U2-7;</v>
       </c>
     </row>
-    <row r="134" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A134" s="9">
         <v>43568</v>
       </c>
@@ -8391,7 +8412,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="135" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A135" s="9">
         <v>43568</v>
       </c>
@@ -9185,12 +9206,41 @@
       </c>
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A155" s="9">
+        <v>43572</v>
+      </c>
+      <c r="B155" s="3">
+        <v>9069863735</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G155" s="27">
+        <v>13106256825</v>
+      </c>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="P155" s="4">
+        <v>2</v>
+      </c>
       <c r="AA155" s="3" t="str">
-        <f t="shared" ref="AA154:AA157" si="10">IF(J156&gt;0,"U1-"&amp;J156&amp;";","")&amp;IF(K156&gt;0,"U2-"&amp;K156&amp;";","")&amp;IF(L156&gt;0,"U3-"&amp;L156&amp;";","")&amp;IF(M156&gt;0,"U4-"&amp;M156&amp;";","")&amp;IF(N156&gt;0,"U6-"&amp;N156&amp;";","")&amp;IF(O156&gt;0,"U7-"&amp;O156&amp;";","")&amp;IF(P156&gt;0,"U8-"&amp;P156&amp;";","")&amp;IF(Q156&gt;0,"U9-"&amp;Q156&amp;";","")&amp;IF(R156&gt;0,"U10-"&amp;R156&amp;";","")&amp;U155</f>
+        <f t="shared" ref="AA155:AA157" si="10">IF(J156&gt;0,"U1-"&amp;J156&amp;";","")&amp;IF(K156&gt;0,"U2-"&amp;K156&amp;";","")&amp;IF(L156&gt;0,"U3-"&amp;L156&amp;";","")&amp;IF(M156&gt;0,"U4-"&amp;M156&amp;";","")&amp;IF(N156&gt;0,"U6-"&amp;N156&amp;";","")&amp;IF(O156&gt;0,"U7-"&amp;O156&amp;";","")&amp;IF(P156&gt;0,"U8-"&amp;P156&amp;";","")&amp;IF(Q156&gt;0,"U9-"&amp;Q156&amp;";","")&amp;IF(R156&gt;0,"U10-"&amp;R156&amp;";","")&amp;U155</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A156" s="3"/>
       <c r="AA156" s="3" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9829,7 +9879,7 @@
       </c>
       <c r="P1048576" s="4">
         <f t="shared" si="12"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1048576" s="4">
         <f t="shared" si="12"/>
@@ -9841,13 +9891,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W140">
-    <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2019" month="4" day="15" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W155"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月/4月份客户发货需求(4.17).xlsx
+++ b/4月/4月份客户发货需求(4.17).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Uoolatex\4月\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
   </bookViews>
@@ -30,7 +25,7 @@
     <author>微软用户</author>
   </authors>
   <commentList>
-    <comment ref="F31" authorId="0" shapeId="0">
+    <comment ref="F31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F33" authorId="0" shapeId="0">
+    <comment ref="F33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0" shapeId="0">
+    <comment ref="F38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0" shapeId="0">
+    <comment ref="F39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F40" authorId="0" shapeId="0">
+    <comment ref="F40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="0" shapeId="0">
+    <comment ref="F43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F47" authorId="0" shapeId="0">
+    <comment ref="F47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F51" authorId="0" shapeId="0">
+    <comment ref="F51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F52" authorId="0" shapeId="0">
+    <comment ref="F52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F54" authorId="0" shapeId="0">
+    <comment ref="F54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F57" authorId="0" shapeId="0">
+    <comment ref="F57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F79" authorId="1" shapeId="0">
+    <comment ref="F79" authorId="1">
       <text>
         <r>
           <rPr>
@@ -188,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F81" authorId="1" shapeId="0">
+    <comment ref="F81" authorId="1">
       <text>
         <r>
           <rPr>
@@ -202,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F83" authorId="1" shapeId="0">
+    <comment ref="F83" authorId="1">
       <text>
         <r>
           <rPr>
@@ -215,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0" shapeId="0">
+    <comment ref="D86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F86" authorId="0" shapeId="0">
+    <comment ref="F86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F89" authorId="2" shapeId="0">
+    <comment ref="F89" authorId="2">
       <text>
         <r>
           <rPr>
@@ -263,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F92" authorId="2" shapeId="0">
+    <comment ref="F92" authorId="2">
       <text>
         <r>
           <rPr>
@@ -278,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F100" authorId="2" shapeId="0">
+    <comment ref="F100" authorId="2">
       <text>
         <r>
           <rPr>
@@ -293,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F101" authorId="2" shapeId="0">
+    <comment ref="F101" authorId="2">
       <text>
         <r>
           <rPr>
@@ -308,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F105" authorId="2" shapeId="0">
+    <comment ref="F105" authorId="2">
       <text>
         <r>
           <rPr>
@@ -323,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F111" authorId="2" shapeId="0">
+    <comment ref="F111" authorId="2">
       <text>
         <r>
           <rPr>
@@ -338,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F112" authorId="2" shapeId="0">
+    <comment ref="F112" authorId="2">
       <text>
         <r>
           <rPr>
@@ -364,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F116" authorId="2" shapeId="0">
+    <comment ref="F116" authorId="2">
       <text>
         <r>
           <rPr>
@@ -379,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F117" authorId="2" shapeId="0">
+    <comment ref="F117" authorId="2">
       <text>
         <r>
           <rPr>
@@ -394,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F123" authorId="2" shapeId="0">
+    <comment ref="F123" authorId="2">
       <text>
         <r>
           <rPr>
@@ -409,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F129" authorId="2" shapeId="0">
+    <comment ref="F129" authorId="2">
       <text>
         <r>
           <rPr>
@@ -424,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F131" authorId="2" shapeId="0">
+    <comment ref="F131" authorId="2">
       <text>
         <r>
           <rPr>
@@ -439,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F135" authorId="2" shapeId="0">
+    <comment ref="F135" authorId="2">
       <text>
         <r>
           <rPr>
@@ -465,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D147" authorId="2" shapeId="0">
+    <comment ref="D147" authorId="2">
       <text>
         <r>
           <rPr>
@@ -492,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D148" authorId="2" shapeId="0">
+    <comment ref="D148" authorId="2">
       <text>
         <r>
           <rPr>
@@ -508,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F154" authorId="3" shapeId="0">
+    <comment ref="F154" authorId="3">
       <text>
         <r>
           <rPr>
@@ -523,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F155" authorId="3" shapeId="0">
+    <comment ref="F155" authorId="3">
       <text>
         <r>
           <rPr>
@@ -2142,12 +2137,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2662,15 +2657,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G158" sqref="G158"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.25" style="3" customWidth="1"/>
@@ -2689,7 +2684,7 @@
     <col min="24" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2757,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27">
       <c r="A2" s="9">
         <v>43556</v>
       </c>
@@ -2804,7 +2799,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27">
       <c r="A3" s="9">
         <v>43556</v>
       </c>
@@ -2849,7 +2844,7 @@
         <v>U1-14;U3-3;</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27">
       <c r="A4" s="9">
         <v>43556</v>
       </c>
@@ -2891,7 +2886,7 @@
         <v>U8-2;</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27">
       <c r="A5" s="9">
         <v>43556</v>
       </c>
@@ -2933,7 +2928,7 @@
         <v>UQ7.5-4;UK7.5-3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27">
       <c r="A6" s="9">
         <v>43556</v>
       </c>
@@ -2974,7 +2969,7 @@
         <v>US7.5-4</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27">
       <c r="A7" s="9">
         <v>43556</v>
       </c>
@@ -3016,7 +3011,7 @@
         <v>UQ7.5-1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27">
       <c r="A8" s="9">
         <v>43556</v>
       </c>
@@ -3058,7 +3053,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27">
       <c r="A9" s="9">
         <v>43556</v>
       </c>
@@ -3103,7 +3098,7 @@
         <v>U1-3;U2-3;</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27">
       <c r="A10" s="9">
         <v>43556</v>
       </c>
@@ -3150,7 +3145,7 @@
         <v>U1-1;U2-1;7700116778119</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27">
       <c r="A11" s="9">
         <v>43556</v>
       </c>
@@ -3197,7 +3192,7 @@
         <v>U1-1;U2-1;7700116778118</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27">
       <c r="A12" s="9">
         <v>43556</v>
       </c>
@@ -3242,7 +3237,7 @@
         <v>U1-2;U2-2;7700116778114</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27">
       <c r="A13" s="9">
         <v>43556</v>
       </c>
@@ -3287,7 +3282,7 @@
         <v>U1-1;U2-1;7700116778112</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27">
       <c r="A14" s="9">
         <v>43556</v>
       </c>
@@ -3329,7 +3324,7 @@
         <v>U4-1;7700116778111</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:27">
       <c r="A15" s="9">
         <v>43556</v>
       </c>
@@ -3371,7 +3366,7 @@
         <v>U2-1;7700116778109</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27">
       <c r="A16" s="9">
         <v>43556</v>
       </c>
@@ -3413,7 +3408,7 @@
         <v>U3-1;7700116778108</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:27">
       <c r="A17" s="9">
         <v>43557</v>
       </c>
@@ -3454,7 +3449,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:27">
       <c r="A18" s="9">
         <v>43557</v>
       </c>
@@ -3498,7 +3493,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:27">
       <c r="A19" s="9">
         <v>43557</v>
       </c>
@@ -3539,7 +3534,7 @@
         <v>U4-1;</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:27">
       <c r="A20" s="9">
         <v>43557</v>
       </c>
@@ -3583,7 +3578,7 @@
         <v>U2-2;U8-1;</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:27" ht="28.5">
       <c r="A21" s="9">
         <v>43557</v>
       </c>
@@ -3638,7 +3633,7 @@
         <v>U1-1;U2-1;U3-1;U4-1;U9-1;</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:27">
       <c r="A22" s="9">
         <v>43557</v>
       </c>
@@ -3679,7 +3674,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:27">
       <c r="A23" s="9">
         <v>43557</v>
       </c>
@@ -3720,7 +3715,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:27">
       <c r="A24" s="9">
         <v>43557</v>
       </c>
@@ -3761,7 +3756,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:27">
       <c r="A25" s="9">
         <v>43557</v>
       </c>
@@ -3802,7 +3797,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:27">
       <c r="A26" s="9">
         <v>43557</v>
       </c>
@@ -3843,7 +3838,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:27">
       <c r="A27" s="9">
         <v>43557</v>
       </c>
@@ -3884,7 +3879,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:27">
       <c r="A28" s="9">
         <v>43557</v>
       </c>
@@ -3927,7 +3922,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:27">
       <c r="A29" s="9">
         <v>43557</v>
       </c>
@@ -3971,7 +3966,7 @@
         <v>U1-4;U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:27">
       <c r="A30" s="9">
         <v>43557</v>
       </c>
@@ -4012,7 +4007,7 @@
         <v>U9-3;U10-1;</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:27">
       <c r="A31" s="9">
         <v>43558</v>
       </c>
@@ -4062,7 +4057,7 @@
         <v>U1-9;U2-11;U8-6;U10-6;</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:27">
       <c r="A32" s="9">
         <v>43558</v>
       </c>
@@ -4108,7 +4103,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:27">
       <c r="A33" s="9">
         <v>43558</v>
       </c>
@@ -4149,7 +4144,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:27">
       <c r="A34" s="9">
         <v>43558</v>
       </c>
@@ -4193,7 +4188,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:27">
       <c r="A35" s="9">
         <v>43558</v>
       </c>
@@ -4234,7 +4229,7 @@
         <v>U6-1;</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:27">
       <c r="A36" s="9">
         <v>43558</v>
       </c>
@@ -4275,7 +4270,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:27">
       <c r="A37" s="9">
         <v>43558</v>
       </c>
@@ -4322,7 +4317,7 @@
         <v>U1-1;U2-1;U9-1;</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:27">
       <c r="A38" s="9">
         <v>43558</v>
       </c>
@@ -4363,7 +4358,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:27">
       <c r="A39" s="9">
         <v>43558</v>
       </c>
@@ -4410,7 +4405,7 @@
         <v>U7-1;U9-3;U10-2;</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:27">
       <c r="A40" s="9">
         <v>43558</v>
       </c>
@@ -4454,7 +4449,7 @@
         <v>U8-1;U10-5;</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:27">
       <c r="A41" s="9">
         <v>43558</v>
       </c>
@@ -4495,7 +4490,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:27">
       <c r="A42" s="9">
         <v>43558</v>
       </c>
@@ -4539,7 +4534,7 @@
         <v>U1-3;U2-2;</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:27">
       <c r="A43" s="9">
         <v>43558</v>
       </c>
@@ -4583,7 +4578,7 @@
         <v>U1-4;U10-5;</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:27">
       <c r="A44" s="9">
         <v>43558</v>
       </c>
@@ -4627,7 +4622,7 @@
         <v>U4-1;U7-1;</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:27">
       <c r="A45" s="9">
         <v>43558</v>
       </c>
@@ -4671,7 +4666,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:27">
       <c r="A46" s="9">
         <v>43558</v>
       </c>
@@ -4715,7 +4710,7 @@
         <v>U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:27">
       <c r="A47" s="9">
         <v>43559</v>
       </c>
@@ -4756,7 +4751,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:27">
       <c r="A48" s="9">
         <v>43559</v>
       </c>
@@ -4797,7 +4792,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:27">
       <c r="A49" s="9">
         <v>43559</v>
       </c>
@@ -4838,7 +4833,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:27">
       <c r="A50" s="9">
         <v>43559</v>
       </c>
@@ -4879,7 +4874,7 @@
         <v>U10-5;</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:27">
       <c r="A51" s="9">
         <v>43559</v>
       </c>
@@ -4920,7 +4915,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:27">
       <c r="A52" s="9">
         <v>43559</v>
       </c>
@@ -4961,7 +4956,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:27">
       <c r="A53" s="9">
         <v>43559</v>
       </c>
@@ -5002,7 +4997,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:27">
       <c r="A54" s="9">
         <v>43559</v>
       </c>
@@ -5058,7 +5053,7 @@
         <v>U1-10;U3-4;U4-4;U8-4;U9-10;U10-4;</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:27">
       <c r="A55" s="9">
         <v>43559</v>
       </c>
@@ -5099,7 +5094,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:27">
       <c r="A56" s="9">
         <v>43559</v>
       </c>
@@ -5141,7 +5136,7 @@
         <v>UQ5-1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:27">
       <c r="A57" s="9">
         <v>43559</v>
       </c>
@@ -5185,7 +5180,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:27">
       <c r="A58" s="9">
         <v>43559</v>
       </c>
@@ -5226,7 +5221,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:27">
       <c r="A59" s="9">
         <v>43559</v>
       </c>
@@ -5267,7 +5262,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:27">
       <c r="A60" s="9">
         <v>43559</v>
       </c>
@@ -5309,7 +5304,7 @@
         <v>UQ10-1;UK7.5-1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:27">
       <c r="A61" s="9">
         <v>43559</v>
       </c>
@@ -5362,7 +5357,7 @@
         <v>U1-1;U2-4;U3-1;U6-2;U9-2;</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:27" ht="15.95" customHeight="1">
       <c r="A62" s="9">
         <v>43563</v>
       </c>
@@ -5403,7 +5398,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:27">
       <c r="A63" s="9">
         <v>43563</v>
       </c>
@@ -5444,7 +5439,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:27">
       <c r="A64" s="9">
         <v>43563</v>
       </c>
@@ -5485,7 +5480,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:27">
       <c r="A65" s="9">
         <v>43563</v>
       </c>
@@ -5529,7 +5524,7 @@
         <v>U6-2;U9-1;</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:27">
       <c r="A66" s="9">
         <v>43563</v>
       </c>
@@ -5574,7 +5569,7 @@
         <v>U1-1;U2-8;U9-1;</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:27">
       <c r="A67" s="9">
         <v>43563</v>
       </c>
@@ -5615,7 +5610,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:27">
       <c r="A68" s="9">
         <v>43563</v>
       </c>
@@ -5656,7 +5651,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:27">
       <c r="A69" s="9">
         <v>43563</v>
       </c>
@@ -5700,7 +5695,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:27">
       <c r="A70" s="9">
         <v>43563</v>
       </c>
@@ -5744,7 +5739,7 @@
         <v>U6-1;U9-2;</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:27">
       <c r="A71" s="9">
         <v>43563</v>
       </c>
@@ -5791,7 +5786,7 @@
         <v>U1-5;U2-3;U4-2;</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:27">
       <c r="A72" s="9">
         <v>43563</v>
       </c>
@@ -5838,7 +5833,7 @@
         <v>U4-2;U6-1;U10-3;</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:27">
       <c r="A73" s="9">
         <v>43563</v>
       </c>
@@ -5885,7 +5880,7 @@
         <v>U1-5;U6-5;U7-3;</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:27" ht="12.95" customHeight="1">
       <c r="A74" s="9">
         <v>43563</v>
       </c>
@@ -5929,7 +5924,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:27">
       <c r="A75" s="9">
         <v>43563</v>
       </c>
@@ -5976,7 +5971,7 @@
         <v>U1-4;U2-5;U6-1;</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:27">
       <c r="A76" s="9">
         <v>43563</v>
       </c>
@@ -6020,7 +6015,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:27" s="1" customFormat="1">
       <c r="A77" s="19">
         <v>43563</v>
       </c>
@@ -6072,7 +6067,7 @@
         <v>UK5-1</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:27" ht="42.75">
       <c r="A78" s="19">
         <v>43563</v>
       </c>
@@ -6125,7 +6120,7 @@
         <v>U2-20;U3-5;U4-5;U6-5;U9-5;</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:27">
       <c r="A79" s="19">
         <v>43563</v>
       </c>
@@ -6175,7 +6170,7 @@
         <v>U1-1;U2-3;U9-1;U10-1;</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:27">
       <c r="A80" s="19">
         <v>43563</v>
       </c>
@@ -6219,7 +6214,7 @@
         <v>U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:27">
       <c r="A81" s="19">
         <v>43563</v>
       </c>
@@ -6260,7 +6255,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:27">
       <c r="A82" s="19">
         <v>43563</v>
       </c>
@@ -6304,7 +6299,7 @@
         <v>UK10-1</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:27">
       <c r="A83" s="19">
         <v>43563</v>
       </c>
@@ -6345,7 +6340,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:27">
       <c r="A84" s="19">
         <v>43563</v>
       </c>
@@ -6386,7 +6381,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:27">
       <c r="A85" s="19">
         <v>43563</v>
       </c>
@@ -6427,7 +6422,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:27">
       <c r="A86" s="19">
         <v>43563</v>
       </c>
@@ -6465,7 +6460,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="57" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:27" ht="57">
       <c r="A87" s="9">
         <v>43564</v>
       </c>
@@ -6515,7 +6510,7 @@
         <v>U1-14;U2-10;U3-10;U4-10;</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:27">
       <c r="A88" s="9">
         <v>43564</v>
       </c>
@@ -6553,7 +6548,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:27">
       <c r="A89" s="9">
         <v>43564</v>
       </c>
@@ -6591,7 +6586,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:27">
       <c r="A90" s="9">
         <v>43564</v>
       </c>
@@ -6629,7 +6624,7 @@
         <v>U1-2;</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:27">
       <c r="A91" s="9">
         <v>43564</v>
       </c>
@@ -6676,7 +6671,7 @@
         <v>U1-10;U2-5;U3-2;U9-5;</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:27">
       <c r="A92" s="9">
         <v>43564</v>
       </c>
@@ -6714,7 +6709,7 @@
         <v>U10-2;</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:27">
       <c r="A93" s="9">
         <v>43565</v>
       </c>
@@ -6752,7 +6747,7 @@
         <v>U7-1;</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:27">
       <c r="A94" s="9">
         <v>43565</v>
       </c>
@@ -6790,7 +6785,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:27">
       <c r="A95" s="9">
         <v>43565</v>
       </c>
@@ -6828,7 +6823,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:27">
       <c r="A96" s="9">
         <v>43565</v>
       </c>
@@ -6867,7 +6862,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:27">
       <c r="A97" s="9">
         <v>43565</v>
       </c>
@@ -6923,7 +6918,7 @@
         <v>U1-4;U2-4;U3-3;U4-3;U6-2;U7-2;U9-2;</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:27">
       <c r="A98" s="9">
         <v>43565</v>
       </c>
@@ -6961,7 +6956,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:27">
       <c r="A99" s="9">
         <v>43565</v>
       </c>
@@ -7002,7 +6997,7 @@
         <v>U2-1;U9-1;</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:27">
       <c r="A100" s="9">
         <v>43566</v>
       </c>
@@ -7039,7 +7034,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:27">
       <c r="A101" s="9">
         <v>43566</v>
       </c>
@@ -7076,7 +7071,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:27">
       <c r="A102" s="9">
         <v>43566</v>
       </c>
@@ -7113,7 +7108,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:27">
       <c r="A103" s="9">
         <v>43566</v>
       </c>
@@ -7150,7 +7145,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:27">
       <c r="A104" s="9">
         <v>43566</v>
       </c>
@@ -7193,7 +7188,7 @@
         <v>U1-2;U3-2;U9-2;</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:27">
       <c r="A105" s="9">
         <v>43566</v>
       </c>
@@ -7230,7 +7225,7 @@
         <v>U10-2;</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:27">
       <c r="A106" s="9">
         <v>43566</v>
       </c>
@@ -7267,7 +7262,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:27">
       <c r="A107" s="9">
         <v>43566</v>
       </c>
@@ -7307,7 +7302,7 @@
         <v>2.2m*2m*7.5cm -1</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:27">
       <c r="A108" s="9">
         <v>43566</v>
       </c>
@@ -7345,7 +7340,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:27">
       <c r="A109" s="9">
         <v>43566</v>
       </c>
@@ -7383,7 +7378,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:27">
       <c r="A110" s="9">
         <v>43566</v>
       </c>
@@ -7421,7 +7416,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:27">
       <c r="A111" s="9">
         <v>43566</v>
       </c>
@@ -7452,7 +7447,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:27">
       <c r="A112" s="9">
         <v>43566</v>
       </c>
@@ -7499,7 +7494,7 @@
         <v>U1-15;U2-15;U8-2;U10-2;</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:27">
       <c r="A113" s="9">
         <v>43566</v>
       </c>
@@ -7540,7 +7535,7 @@
         <v>U2-1;U3-1;</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:27">
       <c r="A114" s="9">
         <v>43567</v>
       </c>
@@ -7584,7 +7579,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:27">
       <c r="A115" s="9">
         <v>43567</v>
       </c>
@@ -7622,7 +7617,7 @@
         <v>U1-10;</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:27">
       <c r="A116" s="9">
         <v>43567</v>
       </c>
@@ -7660,7 +7655,7 @@
         <v>UK5-1</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:27">
       <c r="A117" s="9">
         <v>43567</v>
       </c>
@@ -7701,7 +7696,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:27">
       <c r="A118" s="9">
         <v>43567</v>
       </c>
@@ -7742,7 +7737,7 @@
         <v>U6-1;U9-1;</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:27">
       <c r="A119" s="9">
         <v>43567</v>
       </c>
@@ -7780,7 +7775,7 @@
         <v>1.9m*0.95m*10cm -1</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:27">
       <c r="A120" s="9">
         <v>43567</v>
       </c>
@@ -7824,7 +7819,7 @@
         <v>U1-2;U2-2;U9-2;</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:27">
       <c r="A121" s="9">
         <v>43567</v>
       </c>
@@ -7861,7 +7856,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:27">
       <c r="A122" s="9">
         <v>43567</v>
       </c>
@@ -7920,7 +7915,7 @@
         <v>U1-2;U2-2;U3-1;U4-1;U7-1;U8-1;U9-1;U10-1;</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:27">
       <c r="A123" s="9">
         <v>43567</v>
       </c>
@@ -7958,7 +7953,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:27">
       <c r="A124" s="9">
         <v>43567</v>
       </c>
@@ -7996,7 +7991,7 @@
         <v>us10-1</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:27">
       <c r="A125" s="9">
         <v>43567</v>
       </c>
@@ -8040,7 +8035,7 @@
         <v>U2-1;U3-1;UK7.5-1</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:27">
       <c r="A126" s="9">
         <v>43567</v>
       </c>
@@ -8078,7 +8073,7 @@
         <v>UK10-1</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:27">
       <c r="A127" s="9">
         <v>43567</v>
       </c>
@@ -8128,7 +8123,7 @@
         <v>U1-2;U2-2;U8-3;U9-3;U10-1;</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:27">
       <c r="A128" s="9">
         <v>43567</v>
       </c>
@@ -8166,7 +8161,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:27">
       <c r="A129" s="9">
         <v>43567</v>
       </c>
@@ -8204,7 +8199,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:27">
       <c r="A130" s="9">
         <v>43568</v>
       </c>
@@ -8242,7 +8237,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:27">
       <c r="A131" s="9">
         <v>43568</v>
       </c>
@@ -8286,7 +8281,7 @@
         <v>U1-4;U8-4;U10-2;</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:27">
       <c r="A132" s="9">
         <v>43568</v>
       </c>
@@ -8332,7 +8327,7 @@
         <v>U1-5;U6-2;U7-1;U9-2;</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:27">
       <c r="A133" s="9">
         <v>43568</v>
       </c>
@@ -8372,7 +8367,7 @@
         <v>U1-3;U2-7;</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:27">
       <c r="A134" s="9">
         <v>43568</v>
       </c>
@@ -8412,7 +8407,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:27">
       <c r="A135" s="9">
         <v>43568</v>
       </c>
@@ -8449,7 +8444,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:27">
       <c r="A136" s="9">
         <v>43570</v>
       </c>
@@ -8487,7 +8482,7 @@
         <v>U6-1;</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:27">
       <c r="A137" s="9">
         <v>43570</v>
       </c>
@@ -8524,7 +8519,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:27">
       <c r="A138" s="9">
         <v>43570</v>
       </c>
@@ -8573,7 +8568,7 @@
         <v>U2-2;U3-1;U4-1;U6-2;U9-4;</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:27">
       <c r="A139" s="9">
         <v>43570</v>
       </c>
@@ -8616,7 +8611,7 @@
         <v>U1-1;U2-5;U3-1;</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:27">
       <c r="A140" s="9">
         <v>43570</v>
       </c>
@@ -8653,7 +8648,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:27">
       <c r="A141" s="9">
         <v>43570</v>
       </c>
@@ -8690,7 +8685,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:27">
       <c r="A142" s="9">
         <v>43570</v>
       </c>
@@ -8728,7 +8723,7 @@
         <v>U2-7;</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:27">
       <c r="A143" s="9">
         <v>43571</v>
       </c>
@@ -8765,7 +8760,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:27">
       <c r="A144" s="9">
         <v>43571</v>
       </c>
@@ -8802,7 +8797,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:27">
       <c r="A145" s="9">
         <v>43571</v>
       </c>
@@ -8842,7 +8837,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:27">
       <c r="A146" s="9">
         <v>43571</v>
       </c>
@@ -8880,7 +8875,7 @@
         <v>U9-3;</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:27">
       <c r="A147" s="9">
         <v>43571</v>
       </c>
@@ -8917,7 +8912,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:27">
       <c r="A148" s="9">
         <v>43571</v>
       </c>
@@ -8960,7 +8955,7 @@
         <v>U1-1;U3-2;U9-1;</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:27">
       <c r="A149" s="9">
         <v>43571</v>
       </c>
@@ -8997,7 +8992,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:27">
       <c r="A150" s="9">
         <v>43571</v>
       </c>
@@ -9037,7 +9032,7 @@
         <v>U2-2;U8-1;</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:27">
       <c r="A151" s="9">
         <v>43571</v>
       </c>
@@ -9074,7 +9069,7 @@
         <v>UK10 -1</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:27">
       <c r="A152" s="9">
         <v>43572</v>
       </c>
@@ -9111,7 +9106,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:27">
       <c r="A153" s="9">
         <v>43572</v>
       </c>
@@ -9148,7 +9143,7 @@
         <v>UK10 -1</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:27">
       <c r="A154" s="9">
         <v>43572</v>
       </c>
@@ -9205,7 +9200,7 @@
         <v>U1-10;U2-10;U3-6;U4-6;U6-3;U7-2;U8-2;U9-3;U10-2;</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:27">
       <c r="A155" s="9">
         <v>43572</v>
       </c>
@@ -9239,620 +9234,620 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:27">
       <c r="A156" s="3"/>
       <c r="AA156" s="3" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:27">
       <c r="AA157" s="3" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:27">
       <c r="AA158" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:27">
       <c r="AA159" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:27">
       <c r="AA160" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="161" spans="27:27">
       <c r="AA161" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="162" spans="27:27">
       <c r="AA162" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="163" spans="27:27">
       <c r="AA163" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="164" spans="27:27">
       <c r="AA164" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="165" spans="27:27">
       <c r="AA165" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="166" spans="27:27">
       <c r="AA166" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="167" spans="27:27">
       <c r="AA167" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="168" spans="27:27">
       <c r="AA168" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="169" spans="27:27">
       <c r="AA169" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="170" spans="27:27">
       <c r="AA170" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="171" spans="27:27">
       <c r="AA171" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="172" spans="27:27">
       <c r="AA172" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="173" spans="27:27">
       <c r="AA173" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="174" spans="27:27">
       <c r="AA174" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="175" spans="27:27">
       <c r="AA175" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="176" spans="27:27">
       <c r="AA176" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="177" spans="27:27">
       <c r="AA177" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="178" spans="27:27">
       <c r="AA178" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="179" spans="27:27">
       <c r="AA179" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="180" spans="27:27">
       <c r="AA180" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="181" spans="27:27">
       <c r="AA181" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="182" spans="27:27">
       <c r="AA182" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="183" spans="27:27">
       <c r="AA183" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="184" spans="27:27">
       <c r="AA184" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="185" spans="27:27">
       <c r="AA185" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="186" spans="27:27">
       <c r="AA186" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="187" spans="27:27">
       <c r="AA187" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="188" spans="27:27">
       <c r="AA188" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="189" spans="27:27">
       <c r="AA189" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="190" spans="27:27">
       <c r="AA190" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="191" spans="27:27">
       <c r="AA191" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="192" spans="27:27">
       <c r="AA192" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="193" spans="27:27">
       <c r="AA193" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="194" spans="27:27">
       <c r="AA194" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="195" spans="27:27">
       <c r="AA195" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="196" spans="27:27">
       <c r="AA196" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="197" spans="27:27">
       <c r="AA197" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="198" spans="27:27">
       <c r="AA198" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="199" spans="27:27">
       <c r="AA199" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="200" spans="27:27">
       <c r="AA200" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="201" spans="27:27">
       <c r="AA201" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="202" spans="27:27">
       <c r="AA202" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="203" spans="27:27">
       <c r="AA203" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="204" spans="27:27">
       <c r="AA204" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="205" spans="27:27">
       <c r="AA205" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="206" spans="27:27">
       <c r="AA206" s="3" t="str">
         <f t="shared" ref="AA206:AA257" si="11">IF(J206&gt;0,"U1-"&amp;J206&amp;";","")&amp;IF(K206&gt;0,"U2-"&amp;K206&amp;";","")&amp;IF(L206&gt;0,"U3-"&amp;L206&amp;";","")&amp;IF(M206&gt;0,"U4-"&amp;M206&amp;";","")&amp;IF(N206&gt;0,"U6-"&amp;N206&amp;";","")&amp;IF(O206&gt;0,"U7-"&amp;O206&amp;";","")&amp;IF(P206&gt;0,"U8-"&amp;P206&amp;";","")&amp;IF(Q206&gt;0,"U9-"&amp;Q206&amp;";","")&amp;IF(R206&gt;0,"U10-"&amp;R206&amp;";","")&amp;U206</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="207" spans="27:27">
       <c r="AA207" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="208" spans="27:27">
       <c r="AA208" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="209" spans="27:27">
       <c r="AA209" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="210" spans="27:27">
       <c r="AA210" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="211" spans="27:27">
       <c r="AA211" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="212" spans="27:27">
       <c r="AA212" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="213" spans="27:27">
       <c r="AA213" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="214" spans="27:27">
       <c r="AA214" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="215" spans="27:27">
       <c r="AA215" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="216" spans="27:27">
       <c r="AA216" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="217" spans="27:27">
       <c r="AA217" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="218" spans="27:27">
       <c r="AA218" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="219" spans="27:27">
       <c r="AA219" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="220" spans="27:27">
       <c r="AA220" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="221" spans="27:27">
       <c r="AA221" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="222" spans="27:27">
       <c r="AA222" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="223" spans="27:27">
       <c r="AA223" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="224" spans="27:27">
       <c r="AA224" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="225" spans="27:27">
       <c r="AA225" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="226" spans="27:27">
       <c r="AA226" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="227" spans="27:27">
       <c r="AA227" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="228" spans="27:27">
       <c r="AA228" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="229" spans="27:27">
       <c r="AA229" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="230" spans="27:27">
       <c r="AA230" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="231" spans="27:27">
       <c r="AA231" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="232" spans="27:27">
       <c r="AA232" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="233" spans="27:27">
       <c r="AA233" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="234" spans="27:27">
       <c r="AA234" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="235" spans="27:27">
       <c r="AA235" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="236" spans="27:27">
       <c r="AA236" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="237" spans="27:27">
       <c r="AA237" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="238" spans="27:27">
       <c r="AA238" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="239" spans="27:27">
       <c r="AA239" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="240" spans="27:27">
       <c r="AA240" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="241" spans="27:27">
       <c r="AA241" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="242" spans="27:27">
       <c r="AA242" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="243" spans="27:27">
       <c r="AA243" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="244" spans="27:27">
       <c r="AA244" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="245" spans="27:27">
       <c r="AA245" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="246" spans="27:27">
       <c r="AA246" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="247" spans="27:27">
       <c r="AA247" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="248" spans="27:27">
       <c r="AA248" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="249" spans="27:27">
       <c r="AA249" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="250" spans="27:27">
       <c r="AA250" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="251" spans="27:27">
       <c r="AA251" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="252" spans="27:27">
       <c r="AA252" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="253" spans="27:27">
       <c r="AA253" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="254" spans="27:27">
       <c r="AA254" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="255" spans="27:27">
       <c r="AA255" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="256" spans="27:27">
       <c r="AA256" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="257" spans="27:27">
       <c r="AA257" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1048576" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="1048576" spans="10:18">
       <c r="J1048576" s="4">
         <f>SUM(J2:J1048575)</f>
         <v>177</v>

--- a/4月/4月份客户发货需求(4.17).xlsx
+++ b/4月/4月份客户发货需求(4.17).xlsx
@@ -10,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$156</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -533,12 +533,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="F156" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">老款
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="477">
   <si>
     <t>下单日期</t>
   </si>
@@ -2131,6 +2147,13 @@
   </si>
   <si>
     <t>浙江省金华市义乌市宗泽路567号招商银行副楼10楼 港兴国际货运</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>林晓彬</t>
+  </si>
+  <si>
+    <t>广东省揭阳市揭东区锡场镇深岭大道金源门业</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2658,11 +2681,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I177" sqref="I177"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2757,7 +2781,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" hidden="1">
       <c r="A2" s="9">
         <v>43556</v>
       </c>
@@ -2799,7 +2823,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" hidden="1">
       <c r="A3" s="9">
         <v>43556</v>
       </c>
@@ -2844,7 +2868,7 @@
         <v>U1-14;U3-3;</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" hidden="1">
       <c r="A4" s="9">
         <v>43556</v>
       </c>
@@ -2886,7 +2910,7 @@
         <v>U8-2;</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" hidden="1">
       <c r="A5" s="9">
         <v>43556</v>
       </c>
@@ -2928,7 +2952,7 @@
         <v>UQ7.5-4;UK7.5-3</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" hidden="1">
       <c r="A6" s="9">
         <v>43556</v>
       </c>
@@ -2969,7 +2993,7 @@
         <v>US7.5-4</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" hidden="1">
       <c r="A7" s="9">
         <v>43556</v>
       </c>
@@ -3011,7 +3035,7 @@
         <v>UQ7.5-1</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" hidden="1">
       <c r="A8" s="9">
         <v>43556</v>
       </c>
@@ -3053,7 +3077,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" hidden="1">
       <c r="A9" s="9">
         <v>43556</v>
       </c>
@@ -3098,7 +3122,7 @@
         <v>U1-3;U2-3;</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" hidden="1">
       <c r="A10" s="9">
         <v>43556</v>
       </c>
@@ -3145,7 +3169,7 @@
         <v>U1-1;U2-1;7700116778119</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" hidden="1">
       <c r="A11" s="9">
         <v>43556</v>
       </c>
@@ -3192,7 +3216,7 @@
         <v>U1-1;U2-1;7700116778118</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" hidden="1">
       <c r="A12" s="9">
         <v>43556</v>
       </c>
@@ -3237,7 +3261,7 @@
         <v>U1-2;U2-2;7700116778114</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" hidden="1">
       <c r="A13" s="9">
         <v>43556</v>
       </c>
@@ -3282,7 +3306,7 @@
         <v>U1-1;U2-1;7700116778112</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" hidden="1">
       <c r="A14" s="9">
         <v>43556</v>
       </c>
@@ -3324,7 +3348,7 @@
         <v>U4-1;7700116778111</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" hidden="1">
       <c r="A15" s="9">
         <v>43556</v>
       </c>
@@ -3366,7 +3390,7 @@
         <v>U2-1;7700116778109</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" hidden="1">
       <c r="A16" s="9">
         <v>43556</v>
       </c>
@@ -3408,7 +3432,7 @@
         <v>U3-1;7700116778108</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" hidden="1">
       <c r="A17" s="9">
         <v>43557</v>
       </c>
@@ -3449,7 +3473,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" hidden="1">
       <c r="A18" s="9">
         <v>43557</v>
       </c>
@@ -3493,7 +3517,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" hidden="1">
       <c r="A19" s="9">
         <v>43557</v>
       </c>
@@ -3534,7 +3558,7 @@
         <v>U4-1;</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" hidden="1">
       <c r="A20" s="9">
         <v>43557</v>
       </c>
@@ -3578,7 +3602,7 @@
         <v>U2-2;U8-1;</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="28.5">
+    <row r="21" spans="1:27" ht="28.5" hidden="1">
       <c r="A21" s="9">
         <v>43557</v>
       </c>
@@ -3633,7 +3657,7 @@
         <v>U1-1;U2-1;U3-1;U4-1;U9-1;</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" hidden="1">
       <c r="A22" s="9">
         <v>43557</v>
       </c>
@@ -3674,7 +3698,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" hidden="1">
       <c r="A23" s="9">
         <v>43557</v>
       </c>
@@ -3715,7 +3739,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" hidden="1">
       <c r="A24" s="9">
         <v>43557</v>
       </c>
@@ -3756,7 +3780,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" hidden="1">
       <c r="A25" s="9">
         <v>43557</v>
       </c>
@@ -3797,7 +3821,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" hidden="1">
       <c r="A26" s="9">
         <v>43557</v>
       </c>
@@ -3838,7 +3862,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" hidden="1">
       <c r="A27" s="9">
         <v>43557</v>
       </c>
@@ -3879,7 +3903,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" hidden="1">
       <c r="A28" s="9">
         <v>43557</v>
       </c>
@@ -3922,7 +3946,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" hidden="1">
       <c r="A29" s="9">
         <v>43557</v>
       </c>
@@ -3966,7 +3990,7 @@
         <v>U1-4;U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" hidden="1">
       <c r="A30" s="9">
         <v>43557</v>
       </c>
@@ -4007,7 +4031,7 @@
         <v>U9-3;U10-1;</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" hidden="1">
       <c r="A31" s="9">
         <v>43558</v>
       </c>
@@ -4057,7 +4081,7 @@
         <v>U1-9;U2-11;U8-6;U10-6;</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" hidden="1">
       <c r="A32" s="9">
         <v>43558</v>
       </c>
@@ -4103,7 +4127,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" hidden="1">
       <c r="A33" s="9">
         <v>43558</v>
       </c>
@@ -4144,7 +4168,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" hidden="1">
       <c r="A34" s="9">
         <v>43558</v>
       </c>
@@ -4188,7 +4212,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" hidden="1">
       <c r="A35" s="9">
         <v>43558</v>
       </c>
@@ -4229,7 +4253,7 @@
         <v>U6-1;</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" hidden="1">
       <c r="A36" s="9">
         <v>43558</v>
       </c>
@@ -4270,7 +4294,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" hidden="1">
       <c r="A37" s="9">
         <v>43558</v>
       </c>
@@ -4317,7 +4341,7 @@
         <v>U1-1;U2-1;U9-1;</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" hidden="1">
       <c r="A38" s="9">
         <v>43558</v>
       </c>
@@ -4358,7 +4382,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" hidden="1">
       <c r="A39" s="9">
         <v>43558</v>
       </c>
@@ -4405,7 +4429,7 @@
         <v>U7-1;U9-3;U10-2;</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" hidden="1">
       <c r="A40" s="9">
         <v>43558</v>
       </c>
@@ -4449,7 +4473,7 @@
         <v>U8-1;U10-5;</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" hidden="1">
       <c r="A41" s="9">
         <v>43558</v>
       </c>
@@ -4490,7 +4514,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" hidden="1">
       <c r="A42" s="9">
         <v>43558</v>
       </c>
@@ -4534,7 +4558,7 @@
         <v>U1-3;U2-2;</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" hidden="1">
       <c r="A43" s="9">
         <v>43558</v>
       </c>
@@ -4578,7 +4602,7 @@
         <v>U1-4;U10-5;</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" hidden="1">
       <c r="A44" s="9">
         <v>43558</v>
       </c>
@@ -4622,7 +4646,7 @@
         <v>U4-1;U7-1;</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" hidden="1">
       <c r="A45" s="9">
         <v>43558</v>
       </c>
@@ -4666,7 +4690,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" hidden="1">
       <c r="A46" s="9">
         <v>43558</v>
       </c>
@@ -4710,7 +4734,7 @@
         <v>U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" hidden="1">
       <c r="A47" s="9">
         <v>43559</v>
       </c>
@@ -4751,7 +4775,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" hidden="1">
       <c r="A48" s="9">
         <v>43559</v>
       </c>
@@ -4792,7 +4816,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" hidden="1">
       <c r="A49" s="9">
         <v>43559</v>
       </c>
@@ -4833,7 +4857,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" hidden="1">
       <c r="A50" s="9">
         <v>43559</v>
       </c>
@@ -4874,7 +4898,7 @@
         <v>U10-5;</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" hidden="1">
       <c r="A51" s="9">
         <v>43559</v>
       </c>
@@ -4915,7 +4939,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" hidden="1">
       <c r="A52" s="9">
         <v>43559</v>
       </c>
@@ -4956,7 +4980,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" hidden="1">
       <c r="A53" s="9">
         <v>43559</v>
       </c>
@@ -4997,7 +5021,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" hidden="1">
       <c r="A54" s="9">
         <v>43559</v>
       </c>
@@ -5053,7 +5077,7 @@
         <v>U1-10;U3-4;U4-4;U8-4;U9-10;U10-4;</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" hidden="1">
       <c r="A55" s="9">
         <v>43559</v>
       </c>
@@ -5094,7 +5118,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" hidden="1">
       <c r="A56" s="9">
         <v>43559</v>
       </c>
@@ -5136,7 +5160,7 @@
         <v>UQ5-1</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" hidden="1">
       <c r="A57" s="9">
         <v>43559</v>
       </c>
@@ -5180,7 +5204,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" hidden="1">
       <c r="A58" s="9">
         <v>43559</v>
       </c>
@@ -5221,7 +5245,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" hidden="1">
       <c r="A59" s="9">
         <v>43559</v>
       </c>
@@ -5262,7 +5286,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" hidden="1">
       <c r="A60" s="9">
         <v>43559</v>
       </c>
@@ -5304,7 +5328,7 @@
         <v>UQ10-1;UK7.5-1</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" hidden="1">
       <c r="A61" s="9">
         <v>43559</v>
       </c>
@@ -5357,7 +5381,7 @@
         <v>U1-1;U2-4;U3-1;U6-2;U9-2;</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.95" customHeight="1">
+    <row r="62" spans="1:27" ht="15.95" hidden="1" customHeight="1">
       <c r="A62" s="9">
         <v>43563</v>
       </c>
@@ -5398,7 +5422,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" hidden="1">
       <c r="A63" s="9">
         <v>43563</v>
       </c>
@@ -5439,7 +5463,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" hidden="1">
       <c r="A64" s="9">
         <v>43563</v>
       </c>
@@ -5480,7 +5504,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" hidden="1">
       <c r="A65" s="9">
         <v>43563</v>
       </c>
@@ -5524,7 +5548,7 @@
         <v>U6-2;U9-1;</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" hidden="1">
       <c r="A66" s="9">
         <v>43563</v>
       </c>
@@ -5569,7 +5593,7 @@
         <v>U1-1;U2-8;U9-1;</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" hidden="1">
       <c r="A67" s="9">
         <v>43563</v>
       </c>
@@ -5610,7 +5634,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" hidden="1">
       <c r="A68" s="9">
         <v>43563</v>
       </c>
@@ -5651,7 +5675,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" hidden="1">
       <c r="A69" s="9">
         <v>43563</v>
       </c>
@@ -5695,7 +5719,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" hidden="1">
       <c r="A70" s="9">
         <v>43563</v>
       </c>
@@ -5739,7 +5763,7 @@
         <v>U6-1;U9-2;</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" hidden="1">
       <c r="A71" s="9">
         <v>43563</v>
       </c>
@@ -5786,7 +5810,7 @@
         <v>U1-5;U2-3;U4-2;</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" hidden="1">
       <c r="A72" s="9">
         <v>43563</v>
       </c>
@@ -5833,7 +5857,7 @@
         <v>U4-2;U6-1;U10-3;</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" hidden="1">
       <c r="A73" s="9">
         <v>43563</v>
       </c>
@@ -5880,7 +5904,7 @@
         <v>U1-5;U6-5;U7-3;</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="12.95" customHeight="1">
+    <row r="74" spans="1:27" ht="12.95" hidden="1" customHeight="1">
       <c r="A74" s="9">
         <v>43563</v>
       </c>
@@ -5924,7 +5948,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" hidden="1">
       <c r="A75" s="9">
         <v>43563</v>
       </c>
@@ -5971,7 +5995,7 @@
         <v>U1-4;U2-5;U6-1;</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" hidden="1">
       <c r="A76" s="9">
         <v>43563</v>
       </c>
@@ -6015,7 +6039,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="1" customFormat="1">
+    <row r="77" spans="1:27" s="1" customFormat="1" hidden="1">
       <c r="A77" s="19">
         <v>43563</v>
       </c>
@@ -6067,7 +6091,7 @@
         <v>UK5-1</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="42.75">
+    <row r="78" spans="1:27" ht="42.75" hidden="1">
       <c r="A78" s="19">
         <v>43563</v>
       </c>
@@ -6120,7 +6144,7 @@
         <v>U2-20;U3-5;U4-5;U6-5;U9-5;</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" hidden="1">
       <c r="A79" s="19">
         <v>43563</v>
       </c>
@@ -6170,7 +6194,7 @@
         <v>U1-1;U2-3;U9-1;U10-1;</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" hidden="1">
       <c r="A80" s="19">
         <v>43563</v>
       </c>
@@ -6214,7 +6238,7 @@
         <v>U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" hidden="1">
       <c r="A81" s="19">
         <v>43563</v>
       </c>
@@ -6255,7 +6279,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" hidden="1">
       <c r="A82" s="19">
         <v>43563</v>
       </c>
@@ -6299,7 +6323,7 @@
         <v>UK10-1</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" hidden="1">
       <c r="A83" s="19">
         <v>43563</v>
       </c>
@@ -6340,7 +6364,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" hidden="1">
       <c r="A84" s="19">
         <v>43563</v>
       </c>
@@ -6381,7 +6405,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" hidden="1">
       <c r="A85" s="19">
         <v>43563</v>
       </c>
@@ -6422,7 +6446,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" hidden="1">
       <c r="A86" s="19">
         <v>43563</v>
       </c>
@@ -6460,7 +6484,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="57">
+    <row r="87" spans="1:27" ht="57" hidden="1">
       <c r="A87" s="9">
         <v>43564</v>
       </c>
@@ -6510,7 +6534,7 @@
         <v>U1-14;U2-10;U3-10;U4-10;</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" hidden="1">
       <c r="A88" s="9">
         <v>43564</v>
       </c>
@@ -6548,7 +6572,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" hidden="1">
       <c r="A89" s="9">
         <v>43564</v>
       </c>
@@ -6586,7 +6610,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" hidden="1">
       <c r="A90" s="9">
         <v>43564</v>
       </c>
@@ -6624,7 +6648,7 @@
         <v>U1-2;</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" hidden="1">
       <c r="A91" s="9">
         <v>43564</v>
       </c>
@@ -6671,7 +6695,7 @@
         <v>U1-10;U2-5;U3-2;U9-5;</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" hidden="1">
       <c r="A92" s="9">
         <v>43564</v>
       </c>
@@ -6709,7 +6733,7 @@
         <v>U10-2;</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" hidden="1">
       <c r="A93" s="9">
         <v>43565</v>
       </c>
@@ -6747,7 +6771,7 @@
         <v>U7-1;</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" hidden="1">
       <c r="A94" s="9">
         <v>43565</v>
       </c>
@@ -6785,7 +6809,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" hidden="1">
       <c r="A95" s="9">
         <v>43565</v>
       </c>
@@ -6823,7 +6847,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" hidden="1">
       <c r="A96" s="9">
         <v>43565</v>
       </c>
@@ -6862,7 +6886,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" hidden="1">
       <c r="A97" s="9">
         <v>43565</v>
       </c>
@@ -6918,7 +6942,7 @@
         <v>U1-4;U2-4;U3-3;U4-3;U6-2;U7-2;U9-2;</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" hidden="1">
       <c r="A98" s="9">
         <v>43565</v>
       </c>
@@ -6956,7 +6980,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" hidden="1">
       <c r="A99" s="9">
         <v>43565</v>
       </c>
@@ -6997,7 +7021,7 @@
         <v>U2-1;U9-1;</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" hidden="1">
       <c r="A100" s="9">
         <v>43566</v>
       </c>
@@ -7034,7 +7058,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" hidden="1">
       <c r="A101" s="9">
         <v>43566</v>
       </c>
@@ -7071,7 +7095,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" hidden="1">
       <c r="A102" s="9">
         <v>43566</v>
       </c>
@@ -7108,7 +7132,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" hidden="1">
       <c r="A103" s="9">
         <v>43566</v>
       </c>
@@ -7145,7 +7169,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" hidden="1">
       <c r="A104" s="9">
         <v>43566</v>
       </c>
@@ -7188,7 +7212,7 @@
         <v>U1-2;U3-2;U9-2;</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" hidden="1">
       <c r="A105" s="9">
         <v>43566</v>
       </c>
@@ -7225,7 +7249,7 @@
         <v>U10-2;</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" hidden="1">
       <c r="A106" s="9">
         <v>43566</v>
       </c>
@@ -7262,7 +7286,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" hidden="1">
       <c r="A107" s="9">
         <v>43566</v>
       </c>
@@ -7302,7 +7326,7 @@
         <v>2.2m*2m*7.5cm -1</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" hidden="1">
       <c r="A108" s="9">
         <v>43566</v>
       </c>
@@ -7340,7 +7364,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" hidden="1">
       <c r="A109" s="9">
         <v>43566</v>
       </c>
@@ -7378,7 +7402,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" hidden="1">
       <c r="A110" s="9">
         <v>43566</v>
       </c>
@@ -7416,7 +7440,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" hidden="1">
       <c r="A111" s="9">
         <v>43566</v>
       </c>
@@ -7447,7 +7471,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" hidden="1">
       <c r="A112" s="9">
         <v>43566</v>
       </c>
@@ -7494,7 +7518,7 @@
         <v>U1-15;U2-15;U8-2;U10-2;</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" hidden="1">
       <c r="A113" s="9">
         <v>43566</v>
       </c>
@@ -7535,7 +7559,7 @@
         <v>U2-1;U3-1;</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" hidden="1">
       <c r="A114" s="9">
         <v>43567</v>
       </c>
@@ -7579,7 +7603,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" hidden="1">
       <c r="A115" s="9">
         <v>43567</v>
       </c>
@@ -7617,7 +7641,7 @@
         <v>U1-10;</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" hidden="1">
       <c r="A116" s="9">
         <v>43567</v>
       </c>
@@ -7655,7 +7679,7 @@
         <v>UK5-1</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" hidden="1">
       <c r="A117" s="9">
         <v>43567</v>
       </c>
@@ -7696,7 +7720,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" hidden="1">
       <c r="A118" s="9">
         <v>43567</v>
       </c>
@@ -7737,7 +7761,7 @@
         <v>U6-1;U9-1;</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" hidden="1">
       <c r="A119" s="9">
         <v>43567</v>
       </c>
@@ -7775,7 +7799,7 @@
         <v>1.9m*0.95m*10cm -1</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" hidden="1">
       <c r="A120" s="9">
         <v>43567</v>
       </c>
@@ -7819,7 +7843,7 @@
         <v>U1-2;U2-2;U9-2;</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" hidden="1">
       <c r="A121" s="9">
         <v>43567</v>
       </c>
@@ -7856,7 +7880,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" hidden="1">
       <c r="A122" s="9">
         <v>43567</v>
       </c>
@@ -7915,7 +7939,7 @@
         <v>U1-2;U2-2;U3-1;U4-1;U7-1;U8-1;U9-1;U10-1;</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" hidden="1">
       <c r="A123" s="9">
         <v>43567</v>
       </c>
@@ -7953,7 +7977,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" hidden="1">
       <c r="A124" s="9">
         <v>43567</v>
       </c>
@@ -7991,7 +8015,7 @@
         <v>us10-1</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" hidden="1">
       <c r="A125" s="9">
         <v>43567</v>
       </c>
@@ -8035,7 +8059,7 @@
         <v>U2-1;U3-1;UK7.5-1</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" hidden="1">
       <c r="A126" s="9">
         <v>43567</v>
       </c>
@@ -8073,7 +8097,7 @@
         <v>UK10-1</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" hidden="1">
       <c r="A127" s="9">
         <v>43567</v>
       </c>
@@ -8123,7 +8147,7 @@
         <v>U1-2;U2-2;U8-3;U9-3;U10-1;</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" hidden="1">
       <c r="A128" s="9">
         <v>43567</v>
       </c>
@@ -8161,7 +8185,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" hidden="1">
       <c r="A129" s="9">
         <v>43567</v>
       </c>
@@ -8199,7 +8223,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" hidden="1">
       <c r="A130" s="9">
         <v>43568</v>
       </c>
@@ -8237,7 +8261,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" hidden="1">
       <c r="A131" s="9">
         <v>43568</v>
       </c>
@@ -8281,7 +8305,7 @@
         <v>U1-4;U8-4;U10-2;</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" hidden="1">
       <c r="A132" s="9">
         <v>43568</v>
       </c>
@@ -8327,7 +8351,7 @@
         <v>U1-5;U6-2;U7-1;U9-2;</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" hidden="1">
       <c r="A133" s="9">
         <v>43568</v>
       </c>
@@ -8367,7 +8391,7 @@
         <v>U1-3;U2-7;</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" hidden="1">
       <c r="A134" s="9">
         <v>43568</v>
       </c>
@@ -8407,7 +8431,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" hidden="1">
       <c r="A135" s="9">
         <v>43568</v>
       </c>
@@ -8444,7 +8468,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" hidden="1">
       <c r="A136" s="9">
         <v>43570</v>
       </c>
@@ -8482,7 +8506,7 @@
         <v>U6-1;</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" hidden="1">
       <c r="A137" s="9">
         <v>43570</v>
       </c>
@@ -8519,7 +8543,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" hidden="1">
       <c r="A138" s="9">
         <v>43570</v>
       </c>
@@ -8568,7 +8592,7 @@
         <v>U2-2;U3-1;U4-1;U6-2;U9-4;</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" hidden="1">
       <c r="A139" s="9">
         <v>43570</v>
       </c>
@@ -8611,7 +8635,7 @@
         <v>U1-1;U2-5;U3-1;</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" hidden="1">
       <c r="A140" s="9">
         <v>43570</v>
       </c>
@@ -8648,7 +8672,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" hidden="1">
       <c r="A141" s="9">
         <v>43570</v>
       </c>
@@ -8685,7 +8709,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" hidden="1">
       <c r="A142" s="9">
         <v>43570</v>
       </c>
@@ -8723,7 +8747,7 @@
         <v>U2-7;</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" hidden="1">
       <c r="A143" s="9">
         <v>43571</v>
       </c>
@@ -8760,7 +8784,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" hidden="1">
       <c r="A144" s="9">
         <v>43571</v>
       </c>
@@ -8797,7 +8821,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:27" hidden="1">
       <c r="A145" s="9">
         <v>43571</v>
       </c>
@@ -8837,7 +8861,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:27" hidden="1">
       <c r="A146" s="9">
         <v>43571</v>
       </c>
@@ -8875,7 +8899,7 @@
         <v>U9-3;</v>
       </c>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" spans="1:27" hidden="1">
       <c r="A147" s="9">
         <v>43571</v>
       </c>
@@ -8912,7 +8936,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:27" hidden="1">
       <c r="A148" s="9">
         <v>43571</v>
       </c>
@@ -8955,7 +8979,7 @@
         <v>U1-1;U3-2;U9-1;</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:27" hidden="1">
       <c r="A149" s="9">
         <v>43571</v>
       </c>
@@ -8992,7 +9016,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:27" hidden="1">
       <c r="A150" s="9">
         <v>43571</v>
       </c>
@@ -9032,7 +9056,7 @@
         <v>U2-2;U8-1;</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:27" hidden="1">
       <c r="A151" s="9">
         <v>43571</v>
       </c>
@@ -9231,11 +9255,37 @@
       </c>
       <c r="AA155" s="3" t="str">
         <f t="shared" ref="AA155:AA157" si="10">IF(J156&gt;0,"U1-"&amp;J156&amp;";","")&amp;IF(K156&gt;0,"U2-"&amp;K156&amp;";","")&amp;IF(L156&gt;0,"U3-"&amp;L156&amp;";","")&amp;IF(M156&gt;0,"U4-"&amp;M156&amp;";","")&amp;IF(N156&gt;0,"U6-"&amp;N156&amp;";","")&amp;IF(O156&gt;0,"U7-"&amp;O156&amp;";","")&amp;IF(P156&gt;0,"U8-"&amp;P156&amp;";","")&amp;IF(Q156&gt;0,"U9-"&amp;Q156&amp;";","")&amp;IF(R156&gt;0,"U10-"&amp;R156&amp;";","")&amp;U155</f>
-        <v/>
+        <v>U9-1;</v>
       </c>
     </row>
     <row r="156" spans="1:27">
-      <c r="A156" s="3"/>
+      <c r="A156" s="9">
+        <v>43572</v>
+      </c>
+      <c r="B156" s="3">
+        <v>4362305394</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G156" s="27">
+        <v>13417655008</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q156" s="4">
+        <v>1</v>
+      </c>
       <c r="AA156" s="3" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9878,7 +9928,7 @@
       </c>
       <c r="Q1048576" s="4">
         <f t="shared" si="12"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R1048576" s="4">
         <f t="shared" si="12"/>
@@ -9886,7 +9936,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W155"/>
+  <autoFilter ref="A1:W156">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2019" month="4" day="17" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月/4月份客户发货需求(4.17).xlsx
+++ b/4月/4月份客户发货需求(4.17).xlsx
@@ -554,7 +554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="480">
   <si>
     <t>下单日期</t>
   </si>
@@ -2154,6 +2154,17 @@
   </si>
   <si>
     <t>广东省揭阳市揭东区锡场镇深岭大道金源门业</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏腾腾</t>
+  </si>
+  <si>
+    <t>山东省烟台市芝罘区前进路1号网点26号宝贝计划</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高洁</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2686,7 +2697,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H188" sqref="H188"/>
+      <selection pane="bottomLeft" activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9288,10 +9299,40 @@
       </c>
       <c r="AA156" s="3" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>U2-2;U9-4;</v>
       </c>
     </row>
     <row r="157" spans="1:27">
+      <c r="A157" s="9">
+        <v>43572</v>
+      </c>
+      <c r="B157" s="3">
+        <v>8166285661</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G157" s="27">
+        <v>13605356612</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="K157" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q157" s="4">
+        <v>4</v>
+      </c>
       <c r="AA157" s="3" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9904,7 +9945,7 @@
       </c>
       <c r="K1048576" s="4">
         <f t="shared" ref="K1048576:R1048576" si="12">SUM(K2:K1048575)</f>
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L1048576" s="4">
         <f t="shared" si="12"/>
@@ -9928,7 +9969,7 @@
       </c>
       <c r="Q1048576" s="4">
         <f t="shared" si="12"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R1048576" s="4">
         <f t="shared" si="12"/>
